--- a/normas/Versiones EN 301549.xlsx
+++ b/normas/Versiones EN 301549.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoseR\Mi unidad\curso2021-2022\accesibilidad Castellon\Referencias\normas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\accesibilidad\normas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EBB3C2-1EB2-446E-9240-84DE53EED1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58D3691-8AB4-4630-8D41-543E7191D463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apps" sheetId="1" r:id="rId1"/>
     <sheet name="Web" sheetId="2" r:id="rId2"/>
+    <sheet name="Créditos" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Apps!$A$1:$F$166</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="230">
   <si>
     <t>Número requisito</t>
   </si>
@@ -726,6 +727,12 @@
   </si>
   <si>
     <t>9.6 Requisitos de conformidad de las Pautas WCAG</t>
+  </si>
+  <si>
+    <t>Autor: José R. Hilera</t>
+  </si>
+  <si>
+    <t>Archivo disponible en GitHub</t>
   </si>
 </sst>
 </file>
@@ -833,7 +840,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -867,6 +874,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1150,7 +1158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMG166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F166"/>
     </sheetView>
   </sheetViews>
@@ -4192,7 +4200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FAB914-40C0-42A8-AA20-4C68CFFD6555}">
   <dimension ref="A1:AMG147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
@@ -6848,4 +6856,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.29999999999999993" footer="0.29999999999999993"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1B843E-2158-47BC-BE0C-FFD552B6B8AD}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="Author: José R. Hilera" xr:uid="{B3DB69A0-7D76-4E6A-9ECB-80818FE08020}"/>
+    <hyperlink ref="A2" r:id="rId2" display="This is an automatic translation from Spanish version of the archive available in GitHub" xr:uid="{D41CE0EF-62B6-4716-9ADB-4CC93AE9F95F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>